--- a/biology/Médecine/Gladys_Ejomi/Gladys_Ejomi.xlsx
+++ b/biology/Médecine/Gladys_Ejomi/Gladys_Ejomi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gladys Ejomi est une médecin et pédiatre camerounaise. Elle est née à Limbé et morte à Douala le 16 juillet 2020.
 Elle est la première femme, native du Cameroun, diplômée de la médecine occidentale. Gladys a été distinguée par la médaille de l'excellence pour son action pionnière pour la médecine du pays. 
@@ -514,15 +526,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance, éducation et débuts
-Gladys Ejomi est née à Limbé, a été scolarisée à Buéa et Bamenda[1]
+          <t>Enfance, éducation et débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gladys Ejomi est née à Limbé, a été scolarisée à Buéa et Bamenda
 et formée à Ibadan, à Londres, à Harvard aux États-Unis en 1971. Elle obtient son diplôme de médecine en 1962.
-Carrière
-Gladys Ejomi a été cadre au Centre Universitaire des Sciences de la Santé (CUSS) de Yaoundé. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gladys_Ejomi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gladys_Ejomi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gladys Ejomi a été cadre au Centre Universitaire des Sciences de la Santé (CUSS) de Yaoundé. 
 Elle a été chef du centre pour la nutrition à la faculté de médecine au Cameroun. La première femme diplômée de la médecine occidentale au Cameroun a également été conseillère régionale en santé du fonds des nations unies pour l’enfance (UNICEF).   
-Distinctions
-Le 05 mars 2020, elle a reçu le prix de l'excellence de la ministre de la promotion de la femme et de la famille, Marie-Thérèse Abena Ondoa. A cette occasion, elle prononce un discours qu'elle intitule « Looking Back To Develop »,Regarder en arrière pour se développer. Elle prônait qu'il faut s'inspirer du passé pour mieux construire l'avenir: « Nous regardons en arrière au fil des ans pour voir ce qui a été réalisé, ce qui a échoué et ce qui doit être fait »[2].
-Elle meurt à l’hôpital général de Douala le 17 juillet 2020[3],[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gladys_Ejomi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gladys_Ejomi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 05 mars 2020, elle a reçu le prix de l'excellence de la ministre de la promotion de la femme et de la famille, Marie-Thérèse Abena Ondoa. A cette occasion, elle prononce un discours qu'elle intitule « Looking Back To Develop »,Regarder en arrière pour se développer. Elle prônait qu'il faut s'inspirer du passé pour mieux construire l'avenir: « Nous regardons en arrière au fil des ans pour voir ce qui a été réalisé, ce qui a échoué et ce qui doit être fait ».
+Elle meurt à l’hôpital général de Douala le 17 juillet 2020,.
 </t>
         </is>
       </c>
